--- a/datasets/voters_electors_by_election_1983_2019.xlsx
+++ b/datasets/voters_electors_by_election_1983_2019.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="28">
   <si>
     <t>Electors</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Constituencies</t>
-  </si>
-  <si>
-    <t>Constituencies+A1:F24</t>
   </si>
 </sst>
 </file>
@@ -3826,7 +3823,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3841,7 +3838,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>

--- a/datasets/voters_electors_by_election_1983_2019.xlsx
+++ b/datasets/voters_electors_by_election_1983_2019.xlsx
@@ -20,7 +20,7 @@
     <sheet name="2005" sheetId="6" r:id="rId6"/>
     <sheet name="2010" sheetId="7" r:id="rId7"/>
     <sheet name="2014" sheetId="8" r:id="rId8"/>
-    <sheet name="2019" sheetId="9" r:id="rId9"/>
+    <sheet name="2019" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -3464,7 +3464,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3822,18 +3822,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.59765625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" customWidth="1"/>
-    <col min="4" max="4" width="18.86328125" customWidth="1"/>
-    <col min="5" max="5" width="14.53125" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.73046875" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.9296875" customWidth="1"/>
+    <col min="5" max="5" width="18.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -3900,7 +3899,7 @@
         <v>48918</v>
       </c>
       <c r="C5" s="1">
-        <v>16081</v>
+        <v>35899</v>
       </c>
       <c r="D5" s="1">
         <v>35612</v>
@@ -3914,7 +3913,7 @@
         <v>65115</v>
       </c>
       <c r="C6" s="1">
-        <v>16081</v>
+        <v>50193</v>
       </c>
       <c r="D6" s="1">
         <v>49687</v>
@@ -3928,7 +3927,7 @@
         <v>53949</v>
       </c>
       <c r="C7" s="1">
-        <v>16081</v>
+        <v>41483</v>
       </c>
       <c r="D7" s="1">
         <v>40682</v>
@@ -3942,7 +3941,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1">
-        <v>16081</v>
+        <v>36458</v>
       </c>
       <c r="D8" s="1">
         <v>36126</v>
@@ -3956,7 +3955,7 @@
         <v>45268</v>
       </c>
       <c r="C9" s="1">
-        <v>16081</v>
+        <v>37723</v>
       </c>
       <c r="D9" s="1">
         <v>37532</v>
@@ -3970,7 +3969,7 @@
         <v>56788</v>
       </c>
       <c r="C10" s="1">
-        <v>16081</v>
+        <v>45662</v>
       </c>
       <c r="D10" s="1">
         <v>45304</v>
@@ -3984,7 +3983,7 @@
         <v>52835</v>
       </c>
       <c r="C11" s="1">
-        <v>16081</v>
+        <v>43046</v>
       </c>
       <c r="D11" s="1">
         <v>42594</v>
@@ -3998,7 +3997,7 @@
         <v>43824</v>
       </c>
       <c r="C12" s="1">
-        <v>16081</v>
+        <v>35632</v>
       </c>
       <c r="D12" s="1">
         <v>35290</v>
@@ -4012,7 +4011,7 @@
         <v>39274</v>
       </c>
       <c r="C13" s="1">
-        <v>16081</v>
+        <v>31099</v>
       </c>
       <c r="D13" s="1">
         <v>30849</v>
@@ -4026,7 +4025,7 @@
         <v>35297</v>
       </c>
       <c r="C14" s="1">
-        <v>16081</v>
+        <v>29221</v>
       </c>
       <c r="D14" s="1">
         <v>29013</v>
@@ -4040,7 +4039,7 @@
         <v>63500</v>
       </c>
       <c r="C15" s="1">
-        <v>16081</v>
+        <v>47470</v>
       </c>
       <c r="D15" s="1">
         <v>47110</v>
@@ -4054,7 +4053,7 @@
         <v>57256</v>
       </c>
       <c r="C16" s="1">
-        <v>16081</v>
+        <v>45105</v>
       </c>
       <c r="D16" s="1">
         <v>44755</v>
@@ -4068,7 +4067,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1">
-        <v>16081</v>
+        <v>35193</v>
       </c>
       <c r="D17" s="1">
         <v>34934</v>
@@ -4082,7 +4081,7 @@
         <v>46260</v>
       </c>
       <c r="C18" s="1">
-        <v>16081</v>
+        <v>34720</v>
       </c>
       <c r="D18" s="1">
         <v>34337</v>
@@ -4096,7 +4095,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1">
-        <v>16081</v>
+        <v>33432</v>
       </c>
       <c r="D19" s="1">
         <v>33213</v>
@@ -4110,7 +4109,7 @@
         <v>38433</v>
       </c>
       <c r="C20" s="1">
-        <v>16081</v>
+        <v>28345</v>
       </c>
       <c r="D20" s="1">
         <v>28169</v>
@@ -4124,7 +4123,7 @@
         <v>44504</v>
       </c>
       <c r="C21" s="1">
-        <v>16081</v>
+        <v>32340</v>
       </c>
       <c r="D21" s="1">
         <v>32062</v>
@@ -4137,8 +4136,8 @@
       <c r="B22" s="2">
         <v>911320</v>
       </c>
-      <c r="C22" s="1">
-        <v>16081</v>
+      <c r="C22" s="2">
+        <v>705901</v>
       </c>
       <c r="D22" s="2">
         <v>699617</v>
@@ -4152,7 +4151,7 @@
         <v>30399</v>
       </c>
       <c r="C23" s="1">
-        <v>16081</v>
+        <v>19335</v>
       </c>
       <c r="D23" s="1">
         <v>18781</v>
@@ -4165,8 +4164,8 @@
       <c r="B24" s="2">
         <v>941719</v>
       </c>
-      <c r="C24" s="1">
-        <v>16081</v>
+      <c r="C24" s="2">
+        <v>725236</v>
       </c>
       <c r="D24" s="2">
         <v>718398</v>

--- a/datasets/voters_electors_by_election_1983_2019.xlsx
+++ b/datasets/voters_electors_by_election_1983_2019.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="28">
   <si>
     <t>Electors</t>
   </si>
@@ -3820,10 +3820,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4131,44 +4131,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2">
-        <v>911320</v>
-      </c>
-      <c r="C22" s="2">
-        <v>705901</v>
-      </c>
-      <c r="D22" s="2">
-        <v>699617</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B22" s="1">
         <v>30399</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C22" s="1">
         <v>19335</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D22" s="1">
         <v>18781</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
-        <v>941719</v>
-      </c>
-      <c r="C24" s="2">
-        <v>725236</v>
-      </c>
-      <c r="D24" s="2">
-        <v>718398</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/voters_electors_by_election_1983_2019.xlsx
+++ b/datasets/voters_electors_by_election_1983_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7095" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="1983" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="26">
   <si>
     <t>Electors</t>
   </si>
@@ -98,16 +98,10 @@
     <t>Beau Bassin and Petite Riviere</t>
   </si>
   <si>
-    <t>ISLAND OF MAURITIUS</t>
-  </si>
-  <si>
     <t>ISLAND OF RODRIGUES</t>
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>REPUBLIC OF MAURITIUS</t>
   </si>
   <si>
     <t>Constituencies</t>
@@ -117,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,13 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -622,12 +609,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -951,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -967,7 +951,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1263,42 +1247,14 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>537122</v>
-      </c>
-      <c r="C22" s="2">
-        <v>457519</v>
-      </c>
-      <c r="D22" s="2">
-        <v>452221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="B22" s="1">
+        <v>14586</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
-        <v>14586</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="D22" s="1">
         <v>12244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
-        <v>551708</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2">
-        <v>464465</v>
       </c>
     </row>
   </sheetData>
@@ -1308,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1325,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1621,42 +1577,14 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>621885</v>
-      </c>
-      <c r="C22" s="2">
-        <v>553152</v>
-      </c>
-      <c r="D22" s="2">
-        <v>546623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="B22" s="1">
+        <v>17606</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
-        <v>17606</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="D22" s="1">
         <v>14435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
-        <v>639491</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2">
-        <v>561058</v>
       </c>
     </row>
   </sheetData>
@@ -1666,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1684,7 +1612,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1980,42 +1908,14 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>662660</v>
-      </c>
-      <c r="C22" s="2">
-        <v>567164</v>
-      </c>
-      <c r="D22" s="2">
-        <v>559402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="B22" s="1">
         <v>18176</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C22" s="1">
         <v>14306</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D22" s="1">
         <v>14017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
-        <v>680836</v>
-      </c>
-      <c r="C24" s="2">
-        <v>581470</v>
-      </c>
-      <c r="D24" s="2">
-        <v>573419</v>
       </c>
     </row>
   </sheetData>
@@ -2025,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2043,7 +1943,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2339,42 +2239,14 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>696679</v>
-      </c>
-      <c r="C22" s="2">
-        <v>554324</v>
-      </c>
-      <c r="D22" s="2">
-        <v>545801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="B22" s="1">
         <v>18500</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C22" s="1">
         <v>13513</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D22" s="1">
         <v>13204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
-        <v>715179</v>
-      </c>
-      <c r="C24" s="2">
-        <v>567837</v>
-      </c>
-      <c r="D24" s="2">
-        <v>559005</v>
       </c>
     </row>
   </sheetData>
@@ -2384,10 +2256,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E24"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2402,7 +2274,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2698,42 +2570,14 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>758251</v>
-      </c>
-      <c r="C22" s="2">
-        <v>613113</v>
-      </c>
-      <c r="D22" s="2">
-        <v>606539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="B22" s="1">
         <v>21180</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C22" s="1">
         <v>17179</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D22" s="1">
         <v>16924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
-        <v>779431</v>
-      </c>
-      <c r="C24" s="2">
-        <v>630292</v>
-      </c>
-      <c r="D24" s="2">
-        <v>623463</v>
       </c>
     </row>
   </sheetData>
@@ -2743,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2761,7 +2605,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3057,42 +2901,14 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>793449</v>
-      </c>
-      <c r="C22" s="2">
-        <v>646138</v>
-      </c>
-      <c r="D22" s="2">
-        <v>640364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="B22" s="1">
         <v>23856</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C22" s="1">
         <v>20160</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D22" s="1">
         <v>20012</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
-        <v>817305</v>
-      </c>
-      <c r="C24" s="2">
-        <v>666298</v>
-      </c>
-      <c r="D24" s="2">
-        <v>660376</v>
       </c>
     </row>
   </sheetData>
@@ -3102,10 +2918,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E24"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3120,7 +2936,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3416,42 +3232,14 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>852967</v>
-      </c>
-      <c r="C22" s="2">
-        <v>664013</v>
-      </c>
-      <c r="D22" s="2">
-        <v>658441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="B22" s="1">
         <v>26930</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C22" s="1">
         <v>20755</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D22" s="1">
         <v>20552</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
-        <v>879897</v>
-      </c>
-      <c r="C24" s="2">
-        <v>684768</v>
-      </c>
-      <c r="D24" s="2">
-        <v>678993</v>
       </c>
     </row>
   </sheetData>
@@ -3461,10 +3249,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3479,7 +3267,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3775,42 +3563,14 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>908190</v>
-      </c>
-      <c r="C22" s="2">
-        <v>674435</v>
-      </c>
-      <c r="D22" s="2">
-        <v>666936</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="B22" s="1">
         <v>28785</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C22" s="1">
         <v>19925</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D22" s="1">
         <v>19581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
-        <v>936975</v>
-      </c>
-      <c r="C24" s="2">
-        <v>694360</v>
-      </c>
-      <c r="D24" s="2">
-        <v>686517</v>
       </c>
     </row>
   </sheetData>
@@ -3822,8 +3582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3837,7 +3597,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4131,7 +3891,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>30399</v>
